--- a/data/schools/combined_2011-2021.xlsx
+++ b/data/schools/combined_2011-2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="99">
   <si>
     <t>County</t>
   </si>
@@ -229,9 +229,6 @@
     <t>MISC</t>
   </si>
   <si>
-    <t xml:space="preserve">ARAPAHOE  </t>
-  </si>
-  <si>
     <t xml:space="preserve">ARCHULETA  </t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t xml:space="preserve">DELTA  </t>
   </si>
   <si>
-    <t xml:space="preserve">DENVER  </t>
-  </si>
-  <si>
     <t xml:space="preserve">DOLORES  </t>
   </si>
   <si>
@@ -275,15 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">GUNNISON  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINSDALE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEFFERSON  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIOWA  </t>
   </si>
   <si>
     <t xml:space="preserve">KIT CARSON </t>
@@ -5225,7 +5210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B196" s="6">
         <v>2014</v>
@@ -5248,7 +5233,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B197" s="6">
         <v>2014</v>
@@ -5317,7 +5302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B200" s="6">
         <v>2014</v>
@@ -5363,7 +5348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B202" s="6">
         <v>2014</v>
@@ -5386,7 +5371,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B203" s="6">
         <v>2014</v>
@@ -5455,7 +5440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B206" s="6">
         <v>2014</v>
@@ -5478,7 +5463,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B207" s="6">
         <v>2014</v>
@@ -5501,7 +5486,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B208" s="6">
         <v>2014</v>
@@ -5524,7 +5509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B209" s="6">
         <v>2014</v>
@@ -5547,7 +5532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B210" s="6">
         <v>2014</v>
@@ -5570,7 +5555,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B211" s="6">
         <v>2014</v>
@@ -5593,7 +5578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B212" s="6">
         <v>2014</v>
@@ -5616,7 +5601,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B213" s="6">
         <v>2014</v>
@@ -5662,7 +5647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B215" s="6">
         <v>2014</v>
@@ -5708,7 +5693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B217" s="6">
         <v>2014</v>
@@ -5754,7 +5739,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B219" s="6">
         <v>2014</v>
@@ -5777,7 +5762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B220" s="6">
         <v>2014</v>
@@ -5846,7 +5831,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B223" s="6">
         <v>2014</v>
@@ -5869,7 +5854,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B224" s="6">
         <v>2014</v>
@@ -5892,7 +5877,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B225" s="6">
         <v>2014</v>
@@ -5915,7 +5900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B226" s="6">
         <v>2014</v>
@@ -5938,7 +5923,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B227" s="6">
         <v>2014</v>
@@ -5984,7 +5969,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B229" s="6">
         <v>2014</v>
@@ -6053,7 +6038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B232" s="6">
         <v>2014</v>
@@ -6099,7 +6084,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B234" s="6">
         <v>2014</v>
@@ -6122,7 +6107,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B235" s="6">
         <v>2014</v>
@@ -6145,7 +6130,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B236" s="6">
         <v>2014</v>
@@ -6168,7 +6153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B237" s="6">
         <v>2014</v>
@@ -6214,7 +6199,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B239" s="6">
         <v>2014</v>
@@ -6237,7 +6222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B240" s="6">
         <v>2014</v>
@@ -6513,7 +6498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B252" s="6">
         <v>2014</v>
@@ -6582,7 +6567,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B255" s="6">
         <v>2014</v>
@@ -6605,7 +6590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B256" s="6">
         <v>2014</v>
@@ -6697,7 +6682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B260" s="6">
         <v>2015</v>
@@ -6720,7 +6705,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B261" s="6">
         <v>2015</v>
@@ -6789,7 +6774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B264" s="6">
         <v>2015</v>
@@ -6835,7 +6820,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B266" s="6">
         <v>2015</v>
@@ -6858,7 +6843,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B267" s="6">
         <v>2015</v>
@@ -6927,7 +6912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B270" s="6">
         <v>2015</v>
@@ -6950,7 +6935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B271" s="6">
         <v>2015</v>
@@ -6973,7 +6958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B272" s="6">
         <v>2015</v>
@@ -6996,7 +6981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B273" s="6">
         <v>2015</v>
@@ -7019,7 +7004,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B274" s="6">
         <v>2015</v>
@@ -7042,7 +7027,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B275" s="6">
         <v>2015</v>
@@ -7065,7 +7050,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B276" s="6">
         <v>2015</v>
@@ -7088,7 +7073,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B277" s="6">
         <v>2015</v>
@@ -7134,7 +7119,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B279" s="6">
         <v>2015</v>
@@ -7180,7 +7165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B281" s="6">
         <v>2015</v>
@@ -7226,7 +7211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B283" s="6">
         <v>2015</v>
@@ -7249,7 +7234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B284" s="6">
         <v>2015</v>
@@ -7318,7 +7303,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B287" s="6">
         <v>2015</v>
@@ -7341,7 +7326,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B288" s="6">
         <v>2015</v>
@@ -7364,7 +7349,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B289" s="6">
         <v>2015</v>
@@ -7387,7 +7372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B290" s="6">
         <v>2015</v>
@@ -7410,7 +7395,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B291" s="6">
         <v>2015</v>
@@ -7456,7 +7441,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B293" s="6">
         <v>2015</v>
@@ -7525,7 +7510,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B296" s="6">
         <v>2015</v>
@@ -7571,7 +7556,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B298" s="6">
         <v>2015</v>
@@ -7594,7 +7579,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B299" s="6">
         <v>2015</v>
@@ -7617,7 +7602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B300" s="6">
         <v>2015</v>
@@ -7640,7 +7625,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B301" s="6">
         <v>2015</v>
@@ -7686,7 +7671,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B303" s="6">
         <v>2015</v>
@@ -7709,7 +7694,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B304" s="6">
         <v>2015</v>
@@ -7985,7 +7970,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B316" s="6">
         <v>2015</v>
@@ -8054,7 +8039,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B319" s="6">
         <v>2015</v>
@@ -8077,7 +8062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B320" s="6">
         <v>2015</v>
@@ -8169,7 +8154,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B324" s="6">
         <v>2016</v>
@@ -8192,7 +8177,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B325" s="6">
         <v>2016</v>
@@ -8261,7 +8246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B328" s="6">
         <v>2016</v>
@@ -8307,7 +8292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B330" s="6">
         <v>2016</v>
@@ -8330,7 +8315,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B331" s="6">
         <v>2016</v>
@@ -8399,7 +8384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B334" s="6">
         <v>2016</v>
@@ -8422,7 +8407,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B335" s="6">
         <v>2016</v>
@@ -8445,7 +8430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B336" s="6">
         <v>2016</v>
@@ -8468,7 +8453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B337" s="6">
         <v>2016</v>
@@ -8491,7 +8476,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B338" s="6">
         <v>2016</v>
@@ -8514,7 +8499,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B339" s="6">
         <v>2016</v>
@@ -8537,7 +8522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B340" s="6">
         <v>2016</v>
@@ -8560,7 +8545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B341" s="6">
         <v>2016</v>
@@ -8606,7 +8591,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B343" s="6">
         <v>2016</v>
@@ -8652,7 +8637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B345" s="6">
         <v>2016</v>
@@ -8698,7 +8683,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B347" s="6">
         <v>2016</v>
@@ -8721,7 +8706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B348" s="6">
         <v>2016</v>
@@ -8790,7 +8775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B351" s="6">
         <v>2016</v>
@@ -8813,7 +8798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B352" s="6">
         <v>2016</v>
@@ -8836,7 +8821,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B353" s="6">
         <v>2016</v>
@@ -8859,7 +8844,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B354" s="6">
         <v>2016</v>
@@ -8882,7 +8867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B355" s="6">
         <v>2016</v>
@@ -8928,7 +8913,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B357" s="6">
         <v>2016</v>
@@ -8997,7 +8982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B360" s="6">
         <v>2016</v>
@@ -9043,7 +9028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B362" s="6">
         <v>2016</v>
@@ -9066,7 +9051,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B363" s="6">
         <v>2016</v>
@@ -9089,7 +9074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B364" s="6">
         <v>2016</v>
@@ -9112,7 +9097,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B365" s="6">
         <v>2016</v>
@@ -9158,7 +9143,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B367" s="6">
         <v>2016</v>
@@ -9181,7 +9166,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B368" s="6">
         <v>2016</v>
@@ -9457,7 +9442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B380" s="6">
         <v>2016</v>
@@ -9526,7 +9511,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B383" s="6">
         <v>2016</v>
@@ -9549,7 +9534,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B384" s="6">
         <v>2016</v>
@@ -9641,7 +9626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B388" s="6">
         <v>2017</v>
@@ -9664,7 +9649,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B389" s="6">
         <v>2017</v>
@@ -9733,7 +9718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B392" s="6">
         <v>2017</v>
@@ -9779,7 +9764,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B394" s="6">
         <v>2017</v>
@@ -9802,7 +9787,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B395" s="6">
         <v>2017</v>
@@ -9871,7 +9856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B398" s="6">
         <v>2017</v>
@@ -9894,7 +9879,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B399" s="6">
         <v>2017</v>
@@ -9917,7 +9902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B400" s="6">
         <v>2017</v>
@@ -9940,7 +9925,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B401" s="6">
         <v>2017</v>
@@ -9963,7 +9948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B402" s="6">
         <v>2017</v>
@@ -9986,7 +9971,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B403" s="6">
         <v>2017</v>
@@ -10009,7 +9994,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B404" s="6">
         <v>2017</v>
@@ -10032,7 +10017,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B405" s="6">
         <v>2017</v>
@@ -10078,7 +10063,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B407" s="6">
         <v>2017</v>
@@ -10124,7 +10109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B409" s="6">
         <v>2017</v>
@@ -10170,7 +10155,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B411" s="6">
         <v>2017</v>
@@ -10193,7 +10178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B412" s="6">
         <v>2017</v>
@@ -10262,7 +10247,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B415" s="6">
         <v>2017</v>
@@ -10285,7 +10270,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B416" s="6">
         <v>2017</v>
@@ -10308,7 +10293,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B417" s="6">
         <v>2017</v>
@@ -10331,7 +10316,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B418" s="6">
         <v>2017</v>
@@ -10354,7 +10339,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B419" s="6">
         <v>2017</v>
@@ -10400,7 +10385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B421" s="6">
         <v>2017</v>
@@ -10469,7 +10454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B424" s="6">
         <v>2017</v>
@@ -10515,7 +10500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B426" s="6">
         <v>2017</v>
@@ -10538,7 +10523,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B427" s="6">
         <v>2017</v>
@@ -10561,7 +10546,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B428" s="6">
         <v>2017</v>
@@ -10584,7 +10569,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B429" s="6">
         <v>2017</v>
@@ -10630,7 +10615,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B431" s="6">
         <v>2017</v>
@@ -10653,7 +10638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B432" s="6">
         <v>2017</v>
@@ -10929,7 +10914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B444" s="6">
         <v>2017</v>
@@ -10998,7 +10983,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B447" s="6">
         <v>2017</v>
@@ -11021,7 +11006,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B448" s="6">
         <v>2017</v>
@@ -11113,7 +11098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B452" s="6">
         <v>2018</v>
@@ -11136,7 +11121,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B453" s="6">
         <v>2018</v>
@@ -11205,7 +11190,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B456" s="6">
         <v>2018</v>
@@ -11251,7 +11236,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B458" s="6">
         <v>2018</v>
@@ -11274,7 +11259,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B459" s="6">
         <v>2018</v>
@@ -11343,7 +11328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B462" s="6">
         <v>2018</v>
@@ -11366,7 +11351,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B463" s="6">
         <v>2018</v>
@@ -11389,7 +11374,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B464" s="6">
         <v>2018</v>
@@ -11412,7 +11397,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B465" s="6">
         <v>2018</v>
@@ -11435,7 +11420,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B466" s="6">
         <v>2018</v>
@@ -11458,7 +11443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B467" s="6">
         <v>2018</v>
@@ -11481,7 +11466,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B468" s="6">
         <v>2018</v>
@@ -11504,7 +11489,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B469" s="6">
         <v>2018</v>
@@ -11550,7 +11535,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B471" s="6">
         <v>2018</v>
@@ -11596,7 +11581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B473" s="6">
         <v>2018</v>
@@ -11642,7 +11627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B475" s="6">
         <v>2018</v>
@@ -11665,7 +11650,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B476" s="6">
         <v>2018</v>
@@ -11734,7 +11719,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B479" s="6">
         <v>2018</v>
@@ -11757,7 +11742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B480" s="6">
         <v>2018</v>
@@ -11780,7 +11765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B481" s="6">
         <v>2018</v>
@@ -11803,7 +11788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
       <c r="A482" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B482" s="6">
         <v>2018</v>
@@ -11826,7 +11811,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
       <c r="A483" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B483" s="6">
         <v>2018</v>
@@ -11872,7 +11857,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
       <c r="A485" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B485" s="6">
         <v>2018</v>
@@ -11941,7 +11926,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
       <c r="A488" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B488" s="6">
         <v>2018</v>
@@ -11987,7 +11972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
       <c r="A490" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B490" s="6">
         <v>2018</v>
@@ -12010,7 +11995,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
       <c r="A491" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B491" s="6">
         <v>2018</v>
@@ -12033,7 +12018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
       <c r="A492" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B492" s="6">
         <v>2018</v>
@@ -12056,7 +12041,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
       <c r="A493" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B493" s="6">
         <v>2018</v>
@@ -12102,7 +12087,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
       <c r="A495" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B495" s="6">
         <v>2018</v>
@@ -12125,7 +12110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
       <c r="A496" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B496" s="6">
         <v>2018</v>
@@ -12401,7 +12386,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
       <c r="A508" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B508" s="6">
         <v>2018</v>
@@ -12470,7 +12455,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
       <c r="A511" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B511" s="6">
         <v>2018</v>
@@ -12493,7 +12478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
       <c r="A512" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B512" s="6">
         <v>2018</v>
@@ -12585,7 +12570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
       <c r="A516" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B516" s="6">
         <v>2019</v>
@@ -12608,7 +12593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
       <c r="A517" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B517" s="6">
         <v>2019</v>
@@ -12677,7 +12662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
       <c r="A520" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B520" s="6">
         <v>2019</v>
@@ -12723,7 +12708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
       <c r="A522" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B522" s="6">
         <v>2019</v>
@@ -12746,7 +12731,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
       <c r="A523" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B523" s="6">
         <v>2019</v>
@@ -12815,7 +12800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
       <c r="A526" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B526" s="6">
         <v>2019</v>
@@ -12838,7 +12823,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
       <c r="A527" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B527" s="6">
         <v>2019</v>
@@ -12861,7 +12846,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
       <c r="A528" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B528" s="6">
         <v>2019</v>
@@ -12884,7 +12869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
       <c r="A529" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B529" s="6">
         <v>2019</v>
@@ -12907,7 +12892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
       <c r="A530" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B530" s="6">
         <v>2019</v>
@@ -12930,7 +12915,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
       <c r="A531" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B531" s="6">
         <v>2019</v>
@@ -12953,7 +12938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
       <c r="A532" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B532" s="6">
         <v>2019</v>
@@ -12976,7 +12961,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
       <c r="A533" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B533" s="6">
         <v>2019</v>
@@ -13022,7 +13007,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
       <c r="A535" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B535" s="6">
         <v>2019</v>
@@ -13068,7 +13053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
       <c r="A537" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B537" s="6">
         <v>2019</v>
@@ -13114,7 +13099,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
       <c r="A539" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B539" s="6">
         <v>2019</v>
@@ -13137,7 +13122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
       <c r="A540" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B540" s="6">
         <v>2019</v>
@@ -13206,7 +13191,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
       <c r="A543" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B543" s="6">
         <v>2019</v>
@@ -13229,7 +13214,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
       <c r="A544" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B544" s="6">
         <v>2019</v>
@@ -13252,7 +13237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
       <c r="A545" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B545" s="6">
         <v>2019</v>
@@ -13275,7 +13260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
       <c r="A546" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B546" s="6">
         <v>2019</v>
@@ -13298,7 +13283,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
       <c r="A547" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B547" s="6">
         <v>2019</v>
@@ -13344,7 +13329,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
       <c r="A549" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B549" s="6">
         <v>2019</v>
@@ -13413,7 +13398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
       <c r="A552" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B552" s="6">
         <v>2019</v>
@@ -13459,7 +13444,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
       <c r="A554" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B554" s="6">
         <v>2019</v>
@@ -13482,7 +13467,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
       <c r="A555" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B555" s="6">
         <v>2019</v>
@@ -13505,7 +13490,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
       <c r="A556" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B556" s="6">
         <v>2019</v>
@@ -13528,7 +13513,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
       <c r="A557" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B557" s="6">
         <v>2019</v>
@@ -13574,7 +13559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
       <c r="A559" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B559" s="6">
         <v>2019</v>
@@ -13597,7 +13582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
       <c r="A560" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B560" s="6">
         <v>2019</v>
@@ -13873,7 +13858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
       <c r="A572" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B572" s="6">
         <v>2019</v>
@@ -13942,7 +13927,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
       <c r="A575" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B575" s="6">
         <v>2019</v>
@@ -13965,7 +13950,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
       <c r="A576" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B576" s="6">
         <v>2019</v>
@@ -14057,7 +14042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
       <c r="A580" s="5" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B580" s="6">
         <v>2020</v>
@@ -14080,7 +14065,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
       <c r="A581" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B581" s="6">
         <v>2020</v>
@@ -14149,7 +14134,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
       <c r="A584" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B584" s="6">
         <v>2020</v>
@@ -14195,7 +14180,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
       <c r="A586" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B586" s="6">
         <v>2020</v>
@@ -14218,7 +14203,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
       <c r="A587" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B587" s="6">
         <v>2020</v>
@@ -14287,7 +14272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
       <c r="A590" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B590" s="6">
         <v>2020</v>
@@ -14310,7 +14295,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
       <c r="A591" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B591" s="6">
         <v>2020</v>
@@ -14333,7 +14318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
       <c r="A592" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B592" s="6">
         <v>2020</v>
@@ -14356,7 +14341,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
       <c r="A593" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B593" s="6">
         <v>2020</v>
@@ -14379,7 +14364,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
       <c r="A594" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B594" s="6">
         <v>2020</v>
@@ -14402,7 +14387,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
       <c r="A595" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B595" s="6">
         <v>2020</v>
@@ -14425,7 +14410,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
       <c r="A596" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B596" s="6">
         <v>2020</v>
@@ -14448,7 +14433,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
       <c r="A597" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B597" s="6">
         <v>2020</v>
@@ -14494,7 +14479,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
       <c r="A599" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B599" s="6">
         <v>2020</v>
@@ -14540,7 +14525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
       <c r="A601" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B601" s="6">
         <v>2020</v>
@@ -14586,7 +14571,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
       <c r="A603" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B603" s="6">
         <v>2020</v>
@@ -14609,7 +14594,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
       <c r="A604" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B604" s="6">
         <v>2020</v>
@@ -14678,7 +14663,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
       <c r="A607" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B607" s="6">
         <v>2020</v>
@@ -14701,7 +14686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
       <c r="A608" s="5" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B608" s="6">
         <v>2020</v>
@@ -14724,7 +14709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
       <c r="A609" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B609" s="6">
         <v>2020</v>
@@ -14747,7 +14732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
       <c r="A610" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B610" s="6">
         <v>2020</v>
@@ -14770,7 +14755,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
       <c r="A611" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B611" s="6">
         <v>2020</v>
@@ -14816,7 +14801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
       <c r="A613" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B613" s="6">
         <v>2020</v>
@@ -14885,7 +14870,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
       <c r="A616" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B616" s="6">
         <v>2020</v>
@@ -14931,7 +14916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
       <c r="A618" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B618" s="6">
         <v>2020</v>
@@ -14954,7 +14939,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
       <c r="A619" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B619" s="6">
         <v>2020</v>
@@ -14977,7 +14962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
       <c r="A620" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B620" s="6">
         <v>2020</v>
@@ -15000,7 +14985,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
       <c r="A621" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B621" s="6">
         <v>2020</v>
@@ -15046,7 +15031,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
       <c r="A623" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B623" s="6">
         <v>2020</v>
@@ -15069,7 +15054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
       <c r="A624" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B624" s="6">
         <v>2020</v>
@@ -15345,7 +15330,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
       <c r="A636" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B636" s="6">
         <v>2020</v>
@@ -15414,7 +15399,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
       <c r="A639" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B639" s="6">
         <v>2020</v>
@@ -15437,7 +15422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
       <c r="A640" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B640" s="6">
         <v>2020</v>
